--- a/data/raw/Green Energy Papers Database.xlsx
+++ b/data/raw/Green Energy Papers Database.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarelliott/Research-Paper-Clustering/data/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42C43D9-7E1D-0744-8A4D-143CB912B107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -259,31 +281,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -291,7 +329,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -301,41 +339,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -525,145 +566,153 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="115.5"/>
+    <col min="1" max="1" width="115.5" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2022.09.061","http://dx.doi.org/10.1016/j.ijhydene.2022.09.061")</f>
         <v>http://dx.doi.org/10.1016/j.ijhydene.2022.09.061</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.apcatb.2023.123057","http://dx.doi.org/10.1016/j.apcatb.2023.123057")</f>
         <v>http://dx.doi.org/10.1016/j.apcatb.2023.123057</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.3390/atmos14030584","http://dx.doi.org/10.3390/atmos14030584")</f>
         <v>http://dx.doi.org/10.3390/atmos14030584</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2023.04.073","http://dx.doi.org/10.1016/j.ijhydene.2023.04.073")</f>
         <v>http://dx.doi.org/10.1016/j.ijhydene.2023.04.073</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1002/smll.202300291","http://dx.doi.org/10.1002/smll.202300291")</f>
         <v>http://dx.doi.org/10.1002/smll.202300291</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2022.12.285","http://dx.doi.org/10.1016/j.ijhydene.2022.12.285")</f>
         <v>http://dx.doi.org/10.1016/j.ijhydene.2022.12.285</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2022.12.046","http://dx.doi.org/10.1016/j.ijhydene.2022.12.046")</f>
         <v>http://dx.doi.org/10.1016/j.ijhydene.2022.12.046</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.3390/en16010280","http://dx.doi.org/10.3390/en16010280")</f>
         <v>http://dx.doi.org/10.3390/en16010280</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.apenergy.2023.120662","http://dx.doi.org/10.1016/j.apenergy.2023.120662")</f>
         <v>http://dx.doi.org/10.1016/j.apenergy.2023.120662</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.enconman.2023.116670","http://dx.doi.org/10.1016/j.enconman.2023.116670")</f>
         <v>http://dx.doi.org/10.1016/j.enconman.2023.116670</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -672,646 +721,628 @@
         <v>http://dx.doi.org/10.1021/jacs.2c02262</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1002/aenm.201800079","http://dx.doi.org/10.1002/aenm.201800079")</f>
         <v>http://dx.doi.org/10.1002/aenm.201800079</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1002/smll.201805427","http://dx.doi.org/10.1002/smll.201805427")</f>
         <v>http://dx.doi.org/10.1002/smll.201805427</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1021/acs.chemmater.7b00754","http://dx.doi.org/10.1021/acs.chemmater.7b00754")</f>
         <v>http://dx.doi.org/10.1021/acs.chemmater.7b00754</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1007/s40565-016-0238-z","http://dx.doi.org/10.1007/s40565-016-0238-z")</f>
         <v>http://dx.doi.org/10.1007/s40565-016-0238-z</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.mtnano.2020.100072","http://dx.doi.org/10.1016/j.mtnano.2020.100072")</f>
         <v>http://dx.doi.org/10.1016/j.mtnano.2020.100072</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.apenergy.2019.05.066","http://dx.doi.org/10.1016/j.apenergy.2019.05.066")</f>
         <v>http://dx.doi.org/10.1016/j.apenergy.2019.05.066</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.3390/s21041397","http://dx.doi.org/10.3390/s21041397")</f>
         <v>http://dx.doi.org/10.3390/s21041397</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.3390/en15020429","http://dx.doi.org/10.3390/en15020429")</f>
         <v>http://dx.doi.org/10.3390/en15020429</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1109/ACCESS.2018.2885083","http://dx.doi.org/10.1109/ACCESS.2018.2885083")</f>
         <v>http://dx.doi.org/10.1109/ACCESS.2018.2885083</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.heliyon.2024.e29841","http://dx.doi.org/10.1016/j.heliyon.2024.e29841")</f>
         <v>http://dx.doi.org/10.1016/j.heliyon.2024.e29841</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.egycc.2024.100131","http://dx.doi.org/10.1016/j.egycc.2024.100131")</f>
         <v>http://dx.doi.org/10.1016/j.egycc.2024.100131</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1049/stg2.12142","http://dx.doi.org/10.1049/stg2.12142")</f>
         <v>http://dx.doi.org/10.1049/stg2.12142</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1109/SAUPEC60914.2024.10445060","http://dx.doi.org/10.1109/SAUPEC60914.2024.10445060")</f>
         <v>http://dx.doi.org/10.1109/SAUPEC60914.2024.10445060</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.rineng.2023.101709","http://dx.doi.org/10.1016/j.rineng.2023.101709")</f>
         <v>http://dx.doi.org/10.1016/j.rineng.2023.101709</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.rser.2023.113963","http://dx.doi.org/10.1016/j.rser.2023.113963")</f>
         <v>http://dx.doi.org/10.1016/j.rser.2023.113963</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1109/TIA.2023.3308548","http://dx.doi.org/10.1109/TIA.2023.3308548")</f>
         <v>http://dx.doi.org/10.1109/TIA.2023.3308548</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1002/prs.12541","http://dx.doi.org/10.1002/prs.12541")</f>
         <v>http://dx.doi.org/10.1002/prs.12541</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B30" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.3390/su152015032","http://dx.doi.org/10.3390/su152015032")</f>
         <v>http://dx.doi.org/10.3390/su152015032</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B31" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1149/1945-7111/acd874","http://dx.doi.org/10.1149/1945-7111/acd874")</f>
         <v>http://dx.doi.org/10.1149/1945-7111/acd874</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.pecs.2023.101072","http://dx.doi.org/10.1016/j.pecs.2023.101072")</f>
         <v>http://dx.doi.org/10.1016/j.pecs.2023.101072</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="str">
+      <c r="B33" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.susmat.2023.e00567","http://dx.doi.org/10.1016/j.susmat.2023.e00567")</f>
         <v>http://dx.doi.org/10.1016/j.susmat.2023.e00567</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B34" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.3390/su15010439","http://dx.doi.org/10.3390/su15010439")</f>
         <v>http://dx.doi.org/10.3390/su15010439</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1109/TTE.2022.3213253","http://dx.doi.org/10.1109/TTE.2022.3213253")</f>
         <v>http://dx.doi.org/10.1109/TTE.2022.3213253</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2023.03.430","http://dx.doi.org/10.1016/j.ijhydene.2023.03.430")</f>
         <v>http://dx.doi.org/10.1016/j.ijhydene.2023.03.430</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="str">
+      <c r="B37" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.enconman.2023.117078","http://dx.doi.org/10.1016/j.enconman.2023.117078")</f>
         <v>http://dx.doi.org/10.1016/j.enconman.2023.117078</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.egyr.2022.12.088","http://dx.doi.org/10.1016/j.egyr.2022.12.088")</f>
         <v>http://dx.doi.org/10.1016/j.egyr.2022.12.088</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="str">
+      <c r="B39" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.3390/su15021418","http://dx.doi.org/10.3390/su15021418")</f>
         <v>http://dx.doi.org/10.3390/su15021418</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4" t="str">
-        <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2022.12.285","http://dx.doi.org/10.1016/j.ijhydene.2022.12.285")</f>
-        <v>http://dx.doi.org/10.1016/j.ijhydene.2022.12.285</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="str">
+      <c r="B40" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.desal.2023.116424","http://dx.doi.org/10.1016/j.desal.2023.116424")</f>
         <v>http://dx.doi.org/10.1016/j.desal.2023.116424</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B41" s="6" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.esr.2024.101309","http://dx.doi.org/10.1016/j.esr.2024.101309")</f>
         <v>http://dx.doi.org/10.1016/j.esr.2024.101309</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="str">
+      <c r="B42" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1038/s41560-020-0550-8","http://dx.doi.org/10.1038/s41560-020-0550-8")</f>
         <v>http://dx.doi.org/10.1038/s41560-020-0550-8</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="str">
+      <c r="B43" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.renene.2016.03.103","http://dx.doi.org/10.1016/j.renene.2016.03.103")</f>
         <v>http://dx.doi.org/10.1016/j.renene.2016.03.103</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="str">
+      <c r="B44" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.renene.2018.03.056","http://dx.doi.org/10.1016/j.renene.2018.03.056")</f>
         <v>http://dx.doi.org/10.1016/j.renene.2018.03.056</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="str">
+      <c r="B45" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.enconman.2016.09.046","http://dx.doi.org/10.1016/j.enconman.2016.09.046")</f>
         <v>http://dx.doi.org/10.1016/j.enconman.2016.09.046</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="str">
+      <c r="B46" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1109/TSG.2014.2359004","http://dx.doi.org/10.1109/TSG.2014.2359004")</f>
         <v>http://dx.doi.org/10.1109/TSG.2014.2359004</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="str">
+      <c r="B47" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.apenergy.2017.05.116","http://dx.doi.org/10.1016/j.apenergy.2017.05.116")</f>
         <v>http://dx.doi.org/10.1016/j.apenergy.2017.05.116</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="str">
+      <c r="B48" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1109/TPWRS.2013.2288100","http://dx.doi.org/10.1109/TPWRS.2013.2288100")</f>
         <v>http://dx.doi.org/10.1109/TPWRS.2013.2288100</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="str">
+      <c r="B49" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2015.03.004","http://dx.doi.org/10.1016/j.ijhydene.2015.03.004")</f>
         <v>http://dx.doi.org/10.1016/j.ijhydene.2015.03.004</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="str">
+      <c r="B50" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.apenergy.2017.03.051","http://dx.doi.org/10.1016/j.apenergy.2017.03.051")</f>
         <v>http://dx.doi.org/10.1016/j.apenergy.2017.03.051</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="str">
+      <c r="B51" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.enpol.2014.11.038","http://dx.doi.org/10.1016/j.enpol.2014.11.038")</f>
         <v>http://dx.doi.org/10.1016/j.enpol.2014.11.038</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B52" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1177/0193841X231182749","http://dx.doi.org/10.1177/0193841X231182749")</f>
         <v>http://dx.doi.org/10.1177/0193841X231182749</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B53" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1007/s12011-023-03645-9","http://dx.doi.org/10.1007/s12011-023-03645-9")</f>
         <v>http://dx.doi.org/10.1007/s12011-023-03645-9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+    <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B54" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1007/s12274-023-6037-8","http://dx.doi.org/10.1007/s12274-023-6037-8")</f>
         <v>http://dx.doi.org/10.1007/s12274-023-6037-8</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+    <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B55" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ccr.2023.215468","http://dx.doi.org/10.1016/j.ccr.2023.215468")</f>
         <v>http://dx.doi.org/10.1016/j.ccr.2023.215468</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+    <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="str">
+      <c r="B56" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.apenergy.2023.122212","http://dx.doi.org/10.1016/j.apenergy.2023.122212")</f>
         <v>http://dx.doi.org/10.1016/j.apenergy.2023.122212</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+    <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B57" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.gr.2023.03.002","http://dx.doi.org/10.1016/j.gr.2023.03.002")</f>
         <v>http://dx.doi.org/10.1016/j.gr.2023.03.002</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+    <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="str">
+      <c r="B58" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.resourpol.2023.104623","http://dx.doi.org/10.1016/j.resourpol.2023.104623")</f>
         <v>http://dx.doi.org/10.1016/j.resourpol.2023.104623</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="4" t="str">
-        <f>HYPERLINK("http://dx.doi.org/10.1016/j.esr.2024.101309","http://dx.doi.org/10.1016/j.esr.2024.101309")</f>
-        <v>http://dx.doi.org/10.1016/j.esr.2024.101309</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
+    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="str">
+      <c r="B59" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.rser.2023.113941","http://dx.doi.org/10.1016/j.rser.2023.113941")</f>
         <v>http://dx.doi.org/10.1016/j.rser.2023.113941</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
+    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="str">
+      <c r="B60" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.gr.2023.04.003","http://dx.doi.org/10.1016/j.gr.2023.04.003")</f>
         <v>http://dx.doi.org/10.1016/j.gr.2023.04.003</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
+    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="str">
+      <c r="B61" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1080/13504509.2023.2268569","http://dx.doi.org/10.1080/13504509.2023.2268569")</f>
         <v>http://dx.doi.org/10.1080/13504509.2023.2268569</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
+    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="str">
+      <c r="B62" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2022.09.264","http://dx.doi.org/10.1016/j.ijhydene.2022.09.264")</f>
         <v>http://dx.doi.org/10.1016/j.ijhydene.2022.09.264</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="str">
+      <c r="B63" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.cej.2023.145348","http://dx.doi.org/10.1016/j.cej.2023.145348")</f>
         <v>http://dx.doi.org/10.1016/j.cej.2023.145348</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
+    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="str">
+      <c r="B64" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1002/anie.202212653","http://dx.doi.org/10.1002/anie.202212653")</f>
         <v>http://dx.doi.org/10.1002/anie.202212653</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
+    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="str">
+      <c r="B65" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.cej.2022.138489","http://dx.doi.org/10.1016/j.cej.2022.138489")</f>
         <v>http://dx.doi.org/10.1016/j.cej.2022.138489</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
+    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="4" t="str">
+      <c r="B66" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1126/science.ade1499","http://dx.doi.org/10.1126/science.ade1499")</f>
         <v>http://dx.doi.org/10.1126/science.ade1499</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
+    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="4" t="str">
+      <c r="B67" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1002/adma.202206351","http://dx.doi.org/10.1002/adma.202206351")</f>
         <v>http://dx.doi.org/10.1002/adma.202206351</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3" t="s">
+    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="str">
+      <c r="B68" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1039/d2cs00381c","http://dx.doi.org/10.1039/d2cs00381c")</f>
         <v>http://dx.doi.org/10.1039/d2cs00381c</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="3" t="s">
+    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="str">
+      <c r="B69" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.mattod.2023.08.024","http://dx.doi.org/10.1016/j.mattod.2023.08.024")</f>
         <v>http://dx.doi.org/10.1016/j.mattod.2023.08.024</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
+    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B70" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1007/s10311-023-01591-5","http://dx.doi.org/10.1007/s10311-023-01591-5")</f>
         <v>http://dx.doi.org/10.1007/s10311-023-01591-5</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
+    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="4" t="str">
+      <c r="B71" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1007/s12274-023-6037-8","http://dx.doi.org/10.1007/s12274-023-6037-8")</f>
         <v>http://dx.doi.org/10.1007/s12274-023-6037-8</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
+    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="4" t="str">
+      <c r="B72" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.psep.2023.02.036","http://dx.doi.org/10.1016/j.psep.2023.02.036")</f>
         <v>http://dx.doi.org/10.1016/j.psep.2023.02.036</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
+    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="4" t="str">
+      <c r="B73" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.rser.2022.112279","http://dx.doi.org/10.1016/j.rser.2022.112279")</f>
         <v>http://dx.doi.org/10.1016/j.rser.2022.112279</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="3" t="s">
+    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="4" t="str">
+      <c r="B74" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1021/acsnano.2c05557","http://dx.doi.org/10.1021/acsnano.2c05557")</f>
         <v>http://dx.doi.org/10.1021/acsnano.2c05557</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
+    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="4" t="str">
+      <c r="B75" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ijhydene.2022.02.094","http://dx.doi.org/10.1016/j.ijhydene.2022.02.094")</f>
         <v>http://dx.doi.org/10.1016/j.ijhydene.2022.02.094</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="4" t="str">
+      <c r="B76" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.est.2022.105311","http://dx.doi.org/10.1016/j.est.2022.105311")</f>
         <v>http://dx.doi.org/10.1016/j.est.2022.105311</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="3" t="s">
+    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="4" t="str">
+      <c r="B77" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.esr.2022.100939","http://dx.doi.org/10.1016/j.esr.2022.100939")</f>
         <v>http://dx.doi.org/10.1016/j.esr.2022.100939</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="3" t="s">
+    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="4" t="str">
+      <c r="B78" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.rser.2022.112128","http://dx.doi.org/10.1016/j.rser.2022.112128")</f>
         <v>http://dx.doi.org/10.1016/j.rser.2022.112128</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
+    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="4" t="str">
+      <c r="B79" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.ins.2023.119496","http://dx.doi.org/10.1016/j.ins.2023.119496")</f>
         <v>http://dx.doi.org/10.1016/j.ins.2023.119496</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="3" t="s">
+    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="4" t="str">
+      <c r="B80" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1109/TIE.2022.3174241","http://dx.doi.org/10.1109/TIE.2022.3174241")</f>
         <v>http://dx.doi.org/10.1109/TIE.2022.3174241</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="3" t="s">
+    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="4" t="str">
+      <c r="B81" s="3" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.energy.2023.129680","http://dx.doi.org/10.1016/j.energy.2023.129680")</f>
         <v>http://dx.doi.org/10.1016/j.energy.2023.129680</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>